--- a/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_215.xlsx
+++ b/hsim-experiment/harmonic_similarity_split/harmonic_similarity_matches_215.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,45 +436,50 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>similarity_range</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>track_1</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>track_2</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>sim_val</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_1</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>pattern_track_2</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_1</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>time_pattern_track_2</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>link_track_1</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>link_track_2</t>
         </is>
@@ -483,610 +488,652 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>jaah_56</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>jaah_33</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0.04286379872651033</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>[['F:7', 'Bb:min7', 'Eb:7']]</t>
-        </is>
+          <t>jaah_7</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_89</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>0.07477153143173636</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[['Ab:7', 'Db:min7', 'Gb:7']]</t>
+          <t>[['Bb:7', 'Eb', 'Eb']]</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[(15.93, 17.56)]</t>
+          <t>[['D:7', 'G:maj', 'G:maj/B']]</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>[(1.71, 3.15)]</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>[('0:00:08.940000', '0:00:11.880000')]</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>[('0:00:20.080000', '0:00:22.560000')]</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>isophonics_224</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_161</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0.109375</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A', 'E']]</t>
-        </is>
+          <t>isophonics_50</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>isophonics_287</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>0.171875</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[['G:7', 'C:maj', 'G:maj']]</t>
+          <t>[['C', 'G', 'C'], ['G', 'C', 'G']]</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[(55.002834, 59.124376)]</t>
+          <t>[['D', 'A', 'D'], ['A/3', 'D', 'A']]</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>[(11.26, 13.22)]</t>
+          <t>[('0:00:58.300068', '0:01:03.443287'), ('0:00:37.936167', '0:00:42.951678')]</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
+          <t>[('0:00:21.722199', '0:00:26.760929'), ('0:01:05.810340', '0:01:11.679931')]</t>
         </is>
       </c>
       <c r="I3" t="inlineStr"/>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_114</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>schubert-winterreise_150</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0.3028846153846154</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_192</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_15</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0.1714285714285714</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>[['C:7', 'F:min', 'A#:min/C#']]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[(85.58, 94.24)]</t>
+          <t>[['E:7', 'A:min', 'D:min']]</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>[(1.56, 6.9)]</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr"/>
+          <t>[('0:00:25.620000', '0:00:33.760000')]</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[('0:00:44.200000', '0:00:52.320000')]</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_193</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_168</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0.06346153846153846</v>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>[['A#:7', 'D#', 'C:min'], ['C:min/G', 'G', 'C:min'], ['C:min/G', 'G:7', 'C:min'], ['D#/G', 'A#:7/F', 'D#/G'], ['C:min', 'F:min', 'C:min/G']]</t>
-        </is>
+          <t>schubert-winterreise_40</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>isophonics_123</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0.2392241379310345</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[['G#:7', 'C#:maj', 'A#:min'], ['A#:min', 'F:maj', 'A#:min'], ['A#:min/F', 'F:7', 'A#:min'], ['C#:maj/F', 'G#:7', 'C#:maj'], ['A#:min', 'D#:min/A#', 'A#:min']]</t>
+          <t>[['D:maj/F#', 'G:maj', 'D:maj']]</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[(36.42, 38.76), (13.72, 18.34), (24.18, 27.66), (41.06, 42.84), (9.24, 12.56)]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>[(36.98, 42.42), (11.7, 20.02), (74.5, 80.42), (35.22, 40.0), (25.48, 32.8)]</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
-        </is>
-      </c>
+          <t>[('0:01:00.040000', '0:01:07.080000')]</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>[('0:00:08.413696', '0:00:11.072593')]</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
+          <t>low</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>isophonics_123</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0.1588669950738916</v>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>[['E', 'A', 'G:maj/9']]</t>
-        </is>
+          <t>isophonics_69</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>isophonics_89</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0.1323529411764706</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'D']]</t>
+          <t>[['E', 'A', 'E']]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[(50.498163, 63.687097)]</t>
+          <t>[['F#', 'B', 'F#']]</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>[(28.575754, 34.292335)]</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr"/>
+          <t>[('0:00:25.015959', '0:00:36.625937')]</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>[('0:00:15.880484', '0:00:21.522933')]</t>
+        </is>
+      </c>
       <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_140</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>schubert-winterreise_100</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[['C:min', 'G:7/C', 'G:(3,5,b7,b9)/C', 'C:min', 'G:(3,5,b7,b9)/C', 'C:min']]</t>
-        </is>
+          <t>isophonics_79</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0.373062015503876</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[['A:min', 'E:7/A', 'E:(3,5,b7,b9)/A', 'A:min', 'E:(3,5,b7,b9)/A', 'A:min']]</t>
+          <t>[['A', 'E', 'B', 'E', 'A', 'E', 'B']]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[(13.64, 43.66)]</t>
+          <t>[['G:maj', 'D:maj', 'A:maj', 'D:maj', 'G:maj', 'D:maj', 'A:maj']]</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>[(14.46, 46.68)]</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr"/>
+          <t>[('0:00:02.512756', '0:00:22.098788')]</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>[('0:01:49.306000', '0:02:07.327000')]</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr"/>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>isophonics_46</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0.07179054054054054</v>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>[['A', 'D', 'A']]</t>
-        </is>
+          <t>schubert-winterreise_126</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_186</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0.6708333333333334</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[['D', 'G', 'D']]</t>
+          <t>[['D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj', 'A:7', 'D:maj']]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[(1.829138, 15.586961)]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>[(28.921995, 33.101587)]</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr"/>
+          <t>[('0:00:24.520000', '0:00:54.820000')]</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>[('0:01:52.140000', '0:01:54.760000')]</t>
+        </is>
+      </c>
       <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>isophonics_30</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>isophonics_185</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0.1954887218045113</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>[['G', 'A', 'A', 'G']]</t>
-        </is>
+          <t>schubert-winterreise_24</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_159</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[['G:maj/9', 'A', 'A', 'G:maj/9']]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[(31.05097, 38.736775)]</t>
+          <t>[['E:(3,b5,b7)/G#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#', 'A:maj', 'E:(3,b5,b7)/A#']]</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>[(59.937074, 78.698798)]</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr"/>
+          <t>[('0:00:51.700000', '0:00:57.700000')]</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>[('0:00:47.340000', '0:00:52.740000')]</t>
+        </is>
+      </c>
       <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>schubert-winterreise_182</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_294</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3428571428571429</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>[['D:maj/A', 'G:maj', 'D:maj/A']]</t>
-        </is>
+          <t>isophonics_181</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0.3581081081081081</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[['G', 'C', 'G/3']]</t>
+          <t>[['Eb', 'Bb', 'Ab', 'Eb', 'Bb', 'Ab', 'Eb', 'Bb']]</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[(154.02, 159.24)]</t>
+          <t>[['D/2', 'A', 'G/2', 'D/5', 'A', 'G/2', 'D/5', 'A']]</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>[(22.020589, 24.598004)]</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr"/>
+          <t>[('0:00:09.096984', '0:00:20.962380')]</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>[('0:02:10.596000', '0:02:19.605000')]</t>
+        </is>
+      </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>isophonics_108</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>isophonics_180</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0.0881782945736434</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>[['A', 'E', 'A', 'D']]</t>
-        </is>
+          <t>isophonics_96</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>isophonics_159</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0.3645833333333334</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[['F', 'C', 'F', 'Bb']]</t>
+          <t>[['D:maj', 'C:maj', 'G/3', 'D:maj', 'C:maj']]</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[(19.000294, 32.769727)]</t>
+          <t>[['A', 'G/2', 'D/5', 'A', 'G/2']]</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>[(0.440395, 7.265318)]</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr"/>
+          <t>[('0:01:13.890000', '0:01:26.025000')]</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>[('0:00:59.723000', '0:01:05.759000')]</t>
+        </is>
+      </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_196</t>
+          <t>mid</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0.4761904761904762</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
-        </is>
+          <t>schubert-winterreise_13</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_23</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0.3819444444444445</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[['A#:maj', 'D#:7/C#', 'G#:maj/C', 'D#:maj/A#', 'A#:7', 'D#:maj']]</t>
+          <t>[['B:maj', 'F#:7', 'B:maj', 'F#:7', 'B:maj']]</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[(3.22, 18.3)]</t>
+          <t>[['G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']]</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>[(59.6, 70.34)]</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr"/>
+          <t>[('0:00:00.320000', '0:00:10.960000')]</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>[('0:00:07.560000', '0:00:20.920000')]</t>
+        </is>
+      </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_155</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0.08749999999999999</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>[['C:min', 'F:7/A', 'A#:maj'], ['C:maj', 'G:7', 'C:maj']]</t>
-        </is>
+          <t>isophonics_111</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_130</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0.7556818181818181</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[['C:min', 'F:7/C', 'A#'], ['C/G', 'G:7', 'C']]</t>
+          <t>[['C', 'G:7', 'C', 'G:7', 'C', 'G:7', 'C']]</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[(35.62, 41.54), (1.46, 9.84)]</t>
+          <t>[['E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj', 'B:7', 'E:maj']]</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>[(37.2, 39.9), (236.4, 239.98)]</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr"/>
+          <t>[('0:01:10.519024', '0:01:22.732721')]</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>[('0:00:25.260000', '0:00:52.580000')]</t>
+        </is>
+      </c>
       <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_4</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_252</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0.1369047619047619</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
-        </is>
+          <t>schubert-winterreise_129</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_112</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>1</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[['C:min', 'G:maj', 'C:min']]</t>
+          <t>[['F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj', 'C:7', 'F:maj']]</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[(8.24, 13.46)]</t>
+          <t>[['D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj', 'A#:7', 'D#:maj']]</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>[(7.523, 10.397)]</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
+          <t>[('0:01:40.240000', '0:01:44.560000')]</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>[('0:01:52.240000', '0:01:57.700000')]</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_189</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_172</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0.4017857142857143</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>[['G:maj/D', 'D:7', 'G:maj'], ['G:maj/B', 'C:maj', 'G:maj/D']]</t>
-        </is>
+          <t>isophonics_109</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_134</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[['E:maj', 'B:7', 'E:maj'], ['E:maj/G#', 'A:maj', 'E:maj']]</t>
+          <t>[['A', 'D', 'A']]</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[(58.32, 59.68), (56.72, 58.88)]</t>
+          <t>[['C:maj/G', 'F:maj', 'C:maj/G']]</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>[(0.26, 7.34), (52.74, 60.86)]</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr"/>
+          <t>[('0:01:34.925000', '0:01:40.821000')]</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>[('0:02:22.140000', '0:02:26.800000')]</t>
+        </is>
+      </c>
       <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_2</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>isophonics_21</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0.2015810276679842</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>[['E:7', 'A:maj', 'A:maj']]</t>
-        </is>
+          <t>schubert-winterreise_189</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>schubert-winterreise_27</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>1</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[['G:7', 'C', 'C/b7']]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[(8.34, 15.04)]</t>
+          <t>[['D#:(3,5)', 'G:maj/B', 'C:maj', 'G:maj/D', 'D:7', 'G:maj', 'G:min']]</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>[(34.041, 38.588)]</t>
+          <t>[('0:00:55.820000', '0:01:01.680000')]</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+          <t>[('0:01:01.540000', '0:01:07.900000')]</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>isophonics_64</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>isophonics_224</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0.140625</v>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>[['D', 'A', 'E']]</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[(78.565, 87.795)]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>[(92.74687, 96.589773)]</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>spotify:track:6dGnYIeXmHdcikdzNNDMm2</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
